--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/snwe_sum-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/snwe_sum-raw-ss-lookup-tabbed.xlsx
@@ -12,7 +12,10 @@
     <sheet name="5.8-5.11" sheetId="3" r:id="rId3"/>
     <sheet name="6.0-6.5" sheetId="4" r:id="rId4"/>
     <sheet name="6.6-6.11" sheetId="5" r:id="rId5"/>
-    <sheet name="7.0-9.3" sheetId="6" r:id="rId6"/>
+    <sheet name="7.0-7.5" sheetId="6" r:id="rId6"/>
+    <sheet name="7.6-7.11" sheetId="7" r:id="rId7"/>
+    <sheet name="8.0-8.5" sheetId="8" r:id="rId8"/>
+    <sheet name="8.6-9.3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1784,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1792,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1800,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1816,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1824,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1832,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1840,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1856,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1864,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -1872,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1880,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1888,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1896,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -1912,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -1920,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -1928,7 +1931,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -1936,7 +1939,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -1944,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1952,7 +1955,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -1960,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1968,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1976,7 +1979,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1984,7 +1987,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -1992,7 +1995,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -2000,7 +2003,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -2008,7 +2011,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -2016,7 +2019,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -2024,7 +2027,850 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>130</v>
       </c>
     </row>
     <row r="33">

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/snwe_sum-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/snwe_sum-raw-ss-lookup-tabbed.xlsx
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -446,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -454,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -462,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -470,7 +470,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -478,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -486,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -494,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -502,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -510,7 +510,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19">
@@ -518,7 +518,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
@@ -534,7 +534,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -775,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -783,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -791,7 +791,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
@@ -799,7 +799,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
@@ -807,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22">
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -1008,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1040,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -1120,7 +1120,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1241,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -1361,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1514,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1530,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1602,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -1682,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1706,7 +1706,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -1714,7 +1714,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1835,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1851,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -1875,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -1891,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1923,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1971,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -1979,7 +1979,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -1987,7 +1987,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
@@ -1995,7 +1995,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -2084,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -2092,7 +2092,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -2100,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -2108,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -2116,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -2124,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -2132,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2140,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -2148,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -2156,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2164,7 +2164,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -2172,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -2180,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -2188,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -2196,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -2204,7 +2204,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -2244,7 +2244,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -2268,7 +2268,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -2276,7 +2276,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -2308,7 +2308,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2365,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2373,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2381,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2389,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2397,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -2405,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -2413,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -2429,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2437,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2445,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -2453,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2461,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -2469,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -2477,7 +2477,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -2501,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -2517,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -2525,7 +2525,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -2533,7 +2533,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -2541,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -2549,7 +2549,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -2557,7 +2557,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -2573,7 +2573,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -2581,7 +2581,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -2589,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -2597,7 +2597,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -2638,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -2646,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -2654,7 +2654,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -2662,7 +2662,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -2678,7 +2678,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -2686,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -2694,7 +2694,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2702,7 +2702,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -2710,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -2718,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -2726,7 +2726,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -2734,7 +2734,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2742,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -2750,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2758,7 +2758,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -2766,7 +2766,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -2774,7 +2774,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -2782,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2790,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -2798,7 +2798,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -2806,7 +2806,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -2814,7 +2814,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -2822,7 +2822,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -2830,7 +2830,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -2838,7 +2838,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -2854,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -2862,7 +2862,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -2870,7 +2870,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -2878,7 +2878,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
